--- a/element_info_datas/main/main_page.xlsx
+++ b/element_info_datas/main/main_page.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_code\PO_001\element_info_datas\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61401636-161E-479C-AB9E-0D2C4F8080FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C933543-9136-4E01-AF85-DD041452D654}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2700" windowWidth="21960" windowHeight="8964" xr2:uid="{FBC1BBDE-1E08-434B-810E-0C96BA4FA2A3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FBC1BBDE-1E08-434B-810E-0C96BA4FA2A3}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet01" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="83">
   <si>
     <t>元素变量名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,6 +225,138 @@
   </si>
   <si>
     <t>//a[@href="/zentao/user-logout.html"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class='input-group-btn']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//a[@data-value="bug"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">search_input </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//input[@id='searchInput']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索文本输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//a[@href="javascript:$.gotoObject();"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索GO按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug下拉选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//a[@data-value="story"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//a[@data-value="task"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求下拉选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务下拉选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例下拉选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//a[@data-value="testcase"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目下拉选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品下拉选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//a[@data-value="project"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//a[@data-value="product"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title_bug_story_task_testcase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题_bug/需求/任务/案例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[@class="text"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title_project_product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题_项目/产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//button[@id="currentItem"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search_general_options</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search_options_bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search_options_story</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search_options_task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search_options_testcase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search_options_project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search_options_product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search_go_button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索选项下拉框</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,16 +721,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8DE83D-607C-4D12-9D41-2CCE80E7032E}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.109375" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
     <col min="3" max="3" width="23.44140625" customWidth="1"/>
     <col min="4" max="4" width="54.21875" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
@@ -857,6 +989,193 @@
       </c>
       <c r="E15">
         <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
